--- a/SeleniumAutomationProject/ExcelFiles/LoginData.xlsx
+++ b/SeleniumAutomationProject/ExcelFiles/LoginData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\StarAgile\Demos\SA2409028\SeleniumAutomationProject\ExcelFiles\"/>
     </mc:Choice>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
   <si>
     <t>User Name</t>
   </si>
@@ -61,12 +61,25 @@
   </si>
   <si>
     <t>nagraj123</t>
+  </si>
+  <si>
+    <t>aditya</t>
+  </si>
+  <si>
+    <t>aditya123</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -378,100 +391,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
+      <c r="C2" t="s" s="0">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
+      <c r="C3" t="s" s="0">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
+      <c r="C4" t="s" s="0">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
+      <c r="C5" t="s" s="0">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
+      <c r="C6" t="s" s="0">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
-        <v>5</v>
+      <c r="C7" t="s" s="0">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
-        <v>5</v>
+      <c r="C8" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/SeleniumAutomationProject/ExcelFiles/LoginData.xlsx
+++ b/SeleniumAutomationProject/ExcelFiles/LoginData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="18">
   <si>
     <t>User Name</t>
   </si>

--- a/SeleniumAutomationProject/ExcelFiles/LoginData.xlsx
+++ b/SeleniumAutomationProject/ExcelFiles/LoginData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="18">
   <si>
     <t>User Name</t>
   </si>
@@ -80,7 +80,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -88,13 +88,260 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <i val="true"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor indexed="48"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -109,8 +356,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,7 +705,7 @@
       <c r="B2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s" s="34">
         <v>16</v>
       </c>
     </row>
@@ -428,7 +716,7 @@
       <c r="B3" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s" s="35">
         <v>17</v>
       </c>
     </row>
@@ -439,7 +727,7 @@
       <c r="B4" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s" s="36">
         <v>17</v>
       </c>
     </row>
@@ -450,7 +738,7 @@
       <c r="B5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s" s="37">
         <v>16</v>
       </c>
     </row>
@@ -461,7 +749,7 @@
       <c r="B6" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s" s="38">
         <v>17</v>
       </c>
     </row>
@@ -472,7 +760,7 @@
       <c r="B7" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s" s="39">
         <v>17</v>
       </c>
     </row>
@@ -483,7 +771,7 @@
       <c r="B8" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s" s="40">
         <v>16</v>
       </c>
     </row>
@@ -494,7 +782,7 @@
       <c r="B9" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s" s="41">
         <v>17</v>
       </c>
     </row>
